--- a/data/trans_orig/P39A3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{474E3AF9-4962-44ED-B636-589FC170A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30DE751-3083-480F-A190-F2E9CBCB2AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AA62C69-21CD-463C-8130-C4EE9B2DA92B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41873816-67A2-488B-A9C9-F37531D659EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>91,14%</t>
   </si>
   <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>92,9%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>8,86%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>92,67%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>91,79%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>90,5%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,49 +251,55 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>95,34%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,55 +308,55 @@
     <t>91,17%</t>
   </si>
   <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>92,19%</t>
   </si>
   <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,67 +365,70 @@
     <t>89,47%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>92,35%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>6,08%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>91,11%</t>
@@ -434,13 +443,16 @@
     <t>8,46%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>8,89%</t>
@@ -864,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE128B6-6551-49C4-A92F-543AE9AF0184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE76EE7-A5E7-43D5-A405-A6169E055191}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1456,10 +1468,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>981</v>
@@ -1468,13 +1480,13 @@
         <v>643321</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1558</v>
@@ -1483,13 +1495,13 @@
         <v>1289242</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1516,13 @@
         <v>47842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>125</v>
@@ -1519,13 +1531,13 @@
         <v>71500</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>182</v>
@@ -1534,13 +1546,13 @@
         <v>119342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,7 +1608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1620,13 @@
         <v>519821</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>869</v>
@@ -1623,13 +1635,13 @@
         <v>528498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1432</v>
@@ -1638,13 +1650,13 @@
         <v>1048318</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1671,13 @@
         <v>50327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -1674,13 +1686,13 @@
         <v>44779</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -1689,13 +1701,13 @@
         <v>95106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1775,13 @@
         <v>567587</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1308</v>
@@ -1778,13 +1790,13 @@
         <v>826245</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>2137</v>
@@ -1793,13 +1805,13 @@
         <v>1393832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1826,13 @@
         <v>66807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
@@ -1829,13 +1841,13 @@
         <v>85677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>272</v>
@@ -1844,13 +1856,13 @@
         <v>152484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1930,13 @@
         <v>2902699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>4452</v>
@@ -1936,10 +1948,10 @@
         <v>38</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>7285</v>
@@ -1948,13 +1960,13 @@
         <v>6127779</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1981,13 @@
         <v>268138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -1987,10 +1999,10 @@
         <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>845</v>
@@ -1999,13 +2011,13 @@
         <v>597857</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30DE751-3083-480F-A190-F2E9CBCB2AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF22849-8FDB-4851-88B7-F8288F5F01B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41873816-67A2-488B-A9C9-F37531D659EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E8ECBD8-6E4B-4424-8B30-4AE3E785F3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE76EE7-A5E7-43D5-A405-A6169E055191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423306A1-0541-461D-A172-A24B73A7B756}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF22849-8FDB-4851-88B7-F8288F5F01B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD6DEA1-1349-4579-80F9-838A3EF80CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E8ECBD8-6E4B-4424-8B30-4AE3E785F3C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE0187F4-1EB1-4913-A9A9-69090E29CFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>91,14%</t>
   </si>
   <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>92,9%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>8,86%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>92,67%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>91,79%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>90,5%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,208 +251,196 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>88,33%</t>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>10,65%</t>
   </si>
   <si>
     <t>8,89%</t>
@@ -876,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423306A1-0541-461D-A172-A24B73A7B756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B892C137-0DFA-4C05-99E3-42F043E4E521}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1468,10 +1456,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>981</v>
@@ -1480,13 +1468,13 @@
         <v>643321</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1558</v>
@@ -1495,13 +1483,13 @@
         <v>1289242</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1504,13 @@
         <v>47842</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>125</v>
@@ -1531,13 +1519,13 @@
         <v>71500</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>182</v>
@@ -1546,13 +1534,13 @@
         <v>119342</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,7 +1596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1620,13 +1608,13 @@
         <v>519821</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>869</v>
@@ -1635,13 +1623,13 @@
         <v>528498</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1432</v>
@@ -1650,13 +1638,13 @@
         <v>1048318</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1659,13 @@
         <v>50327</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -1686,13 +1674,13 @@
         <v>44779</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -1701,13 +1689,13 @@
         <v>95106</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1763,13 @@
         <v>567587</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1308</v>
@@ -1790,13 +1778,13 @@
         <v>826245</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>2137</v>
@@ -1805,13 +1793,13 @@
         <v>1393832</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1814,13 @@
         <v>66807</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
@@ -1841,13 +1829,13 @@
         <v>85677</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>272</v>
@@ -1856,13 +1844,13 @@
         <v>152484</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1918,13 @@
         <v>2902699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7">
         <v>4452</v>
@@ -1948,10 +1936,10 @@
         <v>38</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>7285</v>
@@ -1960,13 +1948,13 @@
         <v>6127779</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1969,13 @@
         <v>268138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -1999,10 +1987,10 @@
         <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>845</v>
@@ -2011,13 +1999,13 @@
         <v>597857</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD6DEA1-1349-4579-80F9-838A3EF80CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAA419A-966B-4C5C-860D-86C18E095104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE0187F4-1EB1-4913-A9A9-69090E29CFC2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1FD98DFD-6103-4DED-87EA-720621A1A916}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="160">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -65,391 +65,454 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>90,06%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
     <t>9,94%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,8 +927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B892C137-0DFA-4C05-99E3-42F043E4E521}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE292180-034A-4AB1-BC07-923C784BA86F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -985,7 +1048,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>307033</v>
+        <v>329461</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1000,7 +1063,7 @@
         <v>173</v>
       </c>
       <c r="I4" s="7">
-        <v>293587</v>
+        <v>258201</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1015,7 +1078,7 @@
         <v>308</v>
       </c>
       <c r="N4" s="7">
-        <v>600620</v>
+        <v>587662</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1036,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>29831</v>
+        <v>31374</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1051,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>22432</v>
+        <v>19882</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1066,7 +1129,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>52263</v>
+        <v>51256</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1087,7 +1150,7 @@
         <v>152</v>
       </c>
       <c r="D6" s="7">
-        <v>336864</v>
+        <v>360835</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1102,7 +1165,7 @@
         <v>187</v>
       </c>
       <c r="I6" s="7">
-        <v>316019</v>
+        <v>278083</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1117,7 +1180,7 @@
         <v>339</v>
       </c>
       <c r="N6" s="7">
-        <v>652883</v>
+        <v>638918</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1140,7 +1203,7 @@
         <v>259</v>
       </c>
       <c r="D7" s="7">
-        <v>366798</v>
+        <v>364109</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1155,7 +1218,7 @@
         <v>396</v>
       </c>
       <c r="I7" s="7">
-        <v>422537</v>
+        <v>387021</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1170,7 +1233,7 @@
         <v>655</v>
       </c>
       <c r="N7" s="7">
-        <v>789335</v>
+        <v>751131</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1191,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>29026</v>
+        <v>29430</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1206,7 +1269,7 @@
         <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>51680</v>
+        <v>103298</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1221,7 +1284,7 @@
         <v>59</v>
       </c>
       <c r="N8" s="7">
-        <v>80706</v>
+        <v>132727</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1242,7 +1305,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>395824</v>
+        <v>393539</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1257,7 +1320,7 @@
         <v>433</v>
       </c>
       <c r="I9" s="7">
-        <v>474217</v>
+        <v>490319</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1335,7 @@
         <v>714</v>
       </c>
       <c r="N9" s="7">
-        <v>870041</v>
+        <v>883858</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1295,7 +1358,7 @@
         <v>470</v>
       </c>
       <c r="D10" s="7">
-        <v>495539</v>
+        <v>475838</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1310,7 +1373,7 @@
         <v>725</v>
       </c>
       <c r="I10" s="7">
-        <v>510894</v>
+        <v>475151</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1325,7 +1388,7 @@
         <v>1195</v>
       </c>
       <c r="N10" s="7">
-        <v>1006433</v>
+        <v>950989</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1346,7 +1409,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>44305</v>
+        <v>43566</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1361,7 +1424,7 @@
         <v>92</v>
       </c>
       <c r="I11" s="7">
-        <v>53650</v>
+        <v>50322</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1376,7 +1439,7 @@
         <v>142</v>
       </c>
       <c r="N11" s="7">
-        <v>97955</v>
+        <v>93888</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1397,7 +1460,7 @@
         <v>520</v>
       </c>
       <c r="D12" s="7">
-        <v>539844</v>
+        <v>519404</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1412,7 +1475,7 @@
         <v>817</v>
       </c>
       <c r="I12" s="7">
-        <v>564544</v>
+        <v>525473</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1490,7 @@
         <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1104388</v>
+        <v>1044877</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1450,46 +1513,46 @@
         <v>577</v>
       </c>
       <c r="D13" s="7">
-        <v>645921</v>
+        <v>815520</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>981</v>
       </c>
       <c r="I13" s="7">
-        <v>643321</v>
+        <v>592970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1558</v>
       </c>
       <c r="N13" s="7">
-        <v>1289242</v>
+        <v>1408489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,46 +1564,46 @@
         <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>47842</v>
+        <v>45006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>125</v>
       </c>
       <c r="I14" s="7">
-        <v>71500</v>
+        <v>66778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>182</v>
       </c>
       <c r="N14" s="7">
-        <v>119342</v>
+        <v>111785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,7 +1615,7 @@
         <v>634</v>
       </c>
       <c r="D15" s="7">
-        <v>693763</v>
+        <v>860526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1567,7 +1630,7 @@
         <v>1106</v>
       </c>
       <c r="I15" s="7">
-        <v>714821</v>
+        <v>659748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1645,7 @@
         <v>1740</v>
       </c>
       <c r="N15" s="7">
-        <v>1408584</v>
+        <v>1520274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1596,7 +1659,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1605,46 +1668,46 @@
         <v>563</v>
       </c>
       <c r="D16" s="7">
-        <v>519821</v>
+        <v>486031</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>869</v>
       </c>
       <c r="I16" s="7">
-        <v>528498</v>
+        <v>484381</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1432</v>
       </c>
       <c r="N16" s="7">
-        <v>1048318</v>
+        <v>970412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,46 +1719,46 @@
         <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>50327</v>
+        <v>47755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
       </c>
       <c r="I17" s="7">
-        <v>44779</v>
+        <v>41824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
       </c>
       <c r="N17" s="7">
-        <v>95106</v>
+        <v>89579</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1770,7 @@
         <v>629</v>
       </c>
       <c r="D18" s="7">
-        <v>570148</v>
+        <v>533786</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1785,7 @@
         <v>962</v>
       </c>
       <c r="I18" s="7">
-        <v>573277</v>
+        <v>526205</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1800,7 @@
         <v>1591</v>
       </c>
       <c r="N18" s="7">
-        <v>1143424</v>
+        <v>1059991</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1751,52 +1814,52 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>829</v>
+        <v>473</v>
       </c>
       <c r="D19" s="7">
-        <v>567587</v>
+        <v>308557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="7">
+        <v>691</v>
+      </c>
+      <c r="I19" s="7">
+        <v>547409</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1164</v>
+      </c>
+      <c r="N19" s="7">
+        <v>855966</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1308</v>
-      </c>
-      <c r="I19" s="7">
-        <v>826245</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2137</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1393832</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>114</v>
@@ -1808,10 +1871,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="D20" s="7">
-        <v>66807</v>
+        <v>32655</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -1823,34 +1886,34 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="I20" s="7">
-        <v>85677</v>
+        <v>31854</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>128</v>
+      </c>
+      <c r="N20" s="7">
+        <v>64509</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="7">
-        <v>272</v>
-      </c>
-      <c r="N20" s="7">
-        <v>152484</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>930</v>
+        <v>528</v>
       </c>
       <c r="D21" s="7">
-        <v>634394</v>
+        <v>341212</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1874,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1479</v>
+        <v>764</v>
       </c>
       <c r="I21" s="7">
-        <v>911922</v>
+        <v>579263</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1889,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2409</v>
+        <v>1292</v>
       </c>
       <c r="N21" s="7">
-        <v>1546316</v>
+        <v>920475</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1906,55 +1969,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2833</v>
+        <v>356</v>
       </c>
       <c r="D22" s="7">
-        <v>2902699</v>
+        <v>220859</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H22" s="7">
-        <v>4452</v>
+        <v>617</v>
       </c>
       <c r="I22" s="7">
-        <v>3225081</v>
+        <v>305229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>7285</v>
+        <v>973</v>
       </c>
       <c r="N22" s="7">
-        <v>6127779</v>
+        <v>526088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +2026,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7">
-        <v>268138</v>
+        <v>30032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>532</v>
+        <v>98</v>
       </c>
       <c r="I23" s="7">
-        <v>329719</v>
+        <v>46003</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>845</v>
+        <v>144</v>
       </c>
       <c r="N23" s="7">
-        <v>597857</v>
+        <v>76035</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2077,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>402</v>
+      </c>
+      <c r="D24" s="7">
+        <v>250891</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>715</v>
+      </c>
+      <c r="I24" s="7">
+        <v>351232</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1117</v>
+      </c>
+      <c r="N24" s="7">
+        <v>602123</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2833</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3000375</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4452</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3050363</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7285</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6050738</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>313</v>
+      </c>
+      <c r="D26" s="7">
+        <v>259818</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>532</v>
+      </c>
+      <c r="I26" s="7">
+        <v>359960</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>845</v>
+      </c>
+      <c r="N26" s="7">
+        <v>619778</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3146</v>
       </c>
-      <c r="D24" s="7">
-        <v>3170837</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3260193</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>4984</v>
       </c>
-      <c r="I24" s="7">
-        <v>3554800</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3410323</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8130</v>
       </c>
-      <c r="N24" s="7">
-        <v>6725636</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>6670516</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
